--- a/db/helper/xlsx/ingredients.xlsx
+++ b/db/helper/xlsx/ingredients.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ingredients" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="141">
   <si>
     <t>Name</t>
   </si>
@@ -434,6 +434,9 @@
   </si>
   <si>
     <t>lb</t>
+  </si>
+  <si>
+    <t>http://farm9.staticflickr.com/8511/8598717582_2d4ec7e7e4_z.jpg</t>
   </si>
 </sst>
 </file>
@@ -793,8 +796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1194,7 +1197,7 @@
         <v>13</v>
       </c>
       <c r="E23" t="s">
-        <v>94</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
